--- a/biology/Zoologie/Agathidium_rumsfeldi/Agathidium_rumsfeldi.xlsx
+++ b/biology/Zoologie/Agathidium_rumsfeldi/Agathidium_rumsfeldi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agathidium rumsfeldi est une espèce de coléoptères de la famille des Leiodidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Une curiosité de la nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom spécifique rumsfeldi fait référence à Donald Rumsfeld. Il a été donné par deux anciens entomologistes de l'université Cornell, Dr Kelly B. Miller (aujourd'hui à la Brigham Young University) et Dr Quentin D. Wheeler (aujourd'hui au Muséum d'histoire naturelle de Londres), qui ont aussi nommé avec humour Agathidium cheneyi, et Agathidium bushi. Selon Miller et Wheeler, la dénomination des coléoptères a été faite pour rendre hommage aux figures politiques.
 </t>
